--- a/plan/exercise/september.xlsx
+++ b/plan/exercise/september.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>日期</t>
   </si>
@@ -38,18 +38,27 @@
   <si>
     <t>宝安公园慢跑一圈</t>
   </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>10点和辉游园博园</t>
+  </si>
+  <si>
+    <t>2016/9/5 6:30:00 - 7:30:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,26 +68,79 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -87,24 +149,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,14 +165,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -131,39 +189,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -171,39 +204,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,43 +226,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,108 +376,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,12 +401,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,6 +411,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -427,11 +438,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,43 +471,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,153 +491,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,18 +1012,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1041,11 +1043,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/plan/exercise/september.xlsx
+++ b/plan/exercise/september.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>日期</t>
   </si>
@@ -47,6 +47,9 @@
   <si>
     <t>2016/9/5 6:30:00 - 7:30:00</t>
   </si>
+  <si>
+    <t>懒</t>
+  </si>
 </sst>
 </file>
 
@@ -68,66 +71,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,6 +107,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -158,16 +199,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,36 +209,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,187 +223,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,45 +414,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,8 +435,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,26 +514,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -519,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,133 +534,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,13 +1015,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
@@ -1057,11 +1060,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/plan/exercise/september.xlsx
+++ b/plan/exercise/september.xlsx
@@ -56,10 +56,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -70,6 +70,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -77,6 +159,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -84,10 +174,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,84 +190,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,25 +206,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,19 +223,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,163 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,26 +417,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,11 +445,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,15 +500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -522,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,16 +534,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,115 +552,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,13 +1015,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
@@ -1079,6 +1079,14 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>

--- a/plan/exercise/september.xlsx
+++ b/plan/exercise/september.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>日期</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>懒</t>
+  </si>
+  <si>
+    <t>2016/9/6 6:30:00 - 7:30:00</t>
+  </si>
+  <si>
+    <t>2016/9/7 6:30:00 - 7:30:00</t>
+  </si>
+  <si>
+    <t>2016/9/8 6:30:00 - 7:30:00</t>
+  </si>
+  <si>
+    <t>2016/9/9 6:30:00 - 7:30:00</t>
   </si>
 </sst>
 </file>
@@ -57,8 +69,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -70,107 +82,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,32 +174,53 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,19 +235,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,25 +373,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,133 +403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,13 +429,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,23 +471,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,24 +509,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,10 +534,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +546,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,13 +1027,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
@@ -1076,7 +1088,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1084,9 +1096,25 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>

--- a/plan/exercise/september.xlsx
+++ b/plan/exercise/september.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>日期</t>
   </si>
@@ -61,6 +61,14 @@
   </si>
   <si>
     <t>2016/9/9 6:30:00 - 7:30:00</t>
+  </si>
+  <si>
+    <t>上下蹲50个*2,俯卧撑30个
+全身运动,出拳40次,左右膝击
+各20次，总共一个小时</t>
+  </si>
+  <si>
+    <t>09-12 6:30-7:30</t>
   </si>
 </sst>
 </file>
@@ -68,10 +76,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,12 +91,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -97,6 +163,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -105,6 +179,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -114,36 +204,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,69 +219,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,13 +243,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,169 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,21 +434,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,8 +455,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,6 +465,56 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -491,41 +534,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -534,10 +542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,142 +554,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1027,16 +1041,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
   </cols>
@@ -1115,6 +1129,30 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:2">
+      <c r="A9" s="2">
+        <v>42624</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>

--- a/plan/exercise/september.xlsx
+++ b/plan/exercise/september.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18585" windowHeight="7860"/>
+    <workbookView windowWidth="18570" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>日期</t>
   </si>
@@ -69,6 +69,17 @@
   </si>
   <si>
     <t>09-12 6:30-7:30</t>
+  </si>
+  <si>
+    <t>09-13 6:30-7:30</t>
+  </si>
+  <si>
+    <t>09-14 7:00-7:45</t>
+  </si>
+  <si>
+    <t>上下蹲50个*2,俯卧撑30个
+全身运动,出拳40次,左右膝击
+各20次</t>
   </si>
 </sst>
 </file>
@@ -76,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,23 +108,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,13 +208,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,86 +221,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,181 +254,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,6 +445,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,36 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -516,6 +512,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,137 +565,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,6 +704,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1041,10 +1055,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1154,6 +1168,22 @@
       </c>
       <c r="B10" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/plan/exercise/september.xlsx
+++ b/plan/exercise/september.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18570" windowHeight="7860"/>
+    <workbookView windowWidth="18585" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>日期</t>
   </si>
@@ -80,6 +80,9 @@
     <t>上下蹲50个*2,俯卧撑30个
 全身运动,出拳40次,左右膝击
 各20次</t>
+  </si>
+  <si>
+    <t>10-3 6:30-7:20</t>
   </si>
 </sst>
 </file>
@@ -87,66 +90,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -160,25 +112,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,6 +183,22 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,7 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,16 +225,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,7 +234,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,7 +242,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,13 +257,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,43 +401,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,121 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,17 +451,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,6 +471,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,11 +523,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,36 +548,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,10 +1058,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1182,7 +1185,15 @@
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" spans="1:2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
